--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>admin</t>
   </si>
@@ -22,35 +22,60 @@
     <t>123456</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>accounttest3@gmail.com</t>
-  </si>
-  <si>
-    <t>accounttest4@gmail.com</t>
-  </si>
-  <si>
-    <t>accounttest5@gmail.com</t>
-  </si>
-  <si>
-    <t>accounttest6@gmail.com</t>
-  </si>
-  <si>
-    <t>accounttest7@gmail.com</t>
-  </si>
-  <si>
-    <t>aadou@gmail.com</t>
+    <t>Password Login</t>
+  </si>
+  <si>
+    <t>ID Login</t>
+  </si>
+  <si>
+    <t>Account Name (*)</t>
+  </si>
+  <si>
+    <t>Email (*)</t>
+  </si>
+  <si>
+    <t>Account Type (*)</t>
+  </si>
+  <si>
+    <t>Full Name (*)</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Phone No.</t>
+  </si>
+  <si>
+    <t>Code (*)</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>123457</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,16 +83,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,13 +114,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,94 +455,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="D2" s="6"/>
+      <c r="H2"/>
+      <c r="N2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="N4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="N5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="N6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>admin</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Email (*)</t>
   </si>
   <si>
-    <t>Account Type (*)</t>
-  </si>
-  <si>
     <t>Full Name (*)</t>
   </si>
   <si>
@@ -61,7 +58,112 @@
     <t>Result</t>
   </si>
   <si>
-    <t>123457</t>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TestExport1</t>
+  </si>
+  <si>
+    <t>TestExport3</t>
+  </si>
+  <si>
+    <t>TestExport4</t>
+  </si>
+  <si>
+    <t>TestExport5</t>
+  </si>
+  <si>
+    <t>TestExport2</t>
+  </si>
+  <si>
+    <t>TestExport1@gmail.com</t>
+  </si>
+  <si>
+    <t>TestExport2@gmail.com</t>
+  </si>
+  <si>
+    <t>TestExport3@gmail.com</t>
+  </si>
+  <si>
+    <t>TestExport4@gmail.com</t>
+  </si>
+  <si>
+    <t>TestExport5@gmail.com</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Export1</t>
+  </si>
+  <si>
+    <t>Export2</t>
+  </si>
+  <si>
+    <t>Export3</t>
+  </si>
+  <si>
+    <t>Export4</t>
+  </si>
+  <si>
+    <t>Export5</t>
+  </si>
+  <si>
+    <t>D.Na1</t>
+  </si>
+  <si>
+    <t>D.Na2</t>
+  </si>
+  <si>
+    <t>D.Na3</t>
+  </si>
+  <si>
+    <t>D.Na4</t>
+  </si>
+  <si>
+    <t>D.Na5</t>
+  </si>
+  <si>
+    <t>Dicentral1</t>
+  </si>
+  <si>
+    <t>Dicentral2</t>
+  </si>
+  <si>
+    <t>Dicentral3</t>
+  </si>
+  <si>
+    <t>Dicentral4</t>
+  </si>
+  <si>
+    <t>Dicentral5</t>
+  </si>
+  <si>
+    <t>VN1</t>
+  </si>
+  <si>
+    <t>VN2</t>
+  </si>
+  <si>
+    <t>VN3</t>
+  </si>
+  <si>
+    <t>VN4</t>
+  </si>
+  <si>
+    <t>VN5</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -133,9 +235,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,10 +557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,98 +569,274 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="H2"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1">
+        <v>90505050505</v>
+      </c>
+      <c r="M2"/>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1">
+        <v>90505050506</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="1">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1">
+        <v>90505050507</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1">
+        <v>90505050508</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1">
+        <v>90505050509</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="N4" t="s">
-        <v>17</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="N7" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="N6" t="s">
-        <v>17</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="N8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>admin</t>
   </si>
@@ -61,66 +61,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>TestExport1</t>
-  </si>
-  <si>
-    <t>TestExport3</t>
-  </si>
-  <si>
-    <t>TestExport4</t>
-  </si>
-  <si>
-    <t>TestExport5</t>
-  </si>
-  <si>
-    <t>TestExport2</t>
-  </si>
-  <si>
-    <t>TestExport1@gmail.com</t>
-  </si>
-  <si>
-    <t>TestExport2@gmail.com</t>
-  </si>
-  <si>
-    <t>TestExport3@gmail.com</t>
-  </si>
-  <si>
-    <t>TestExport4@gmail.com</t>
-  </si>
-  <si>
-    <t>TestExport5@gmail.com</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>Export1</t>
-  </si>
-  <si>
-    <t>Export2</t>
-  </si>
-  <si>
-    <t>Export3</t>
-  </si>
-  <si>
-    <t>Export4</t>
-  </si>
-  <si>
-    <t>Export5</t>
-  </si>
-  <si>
     <t>D.Na1</t>
   </si>
   <si>
@@ -166,17 +106,118 @@
     <t>VN5</t>
   </si>
   <si>
+    <t>090505050505</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>D.Na6</t>
+  </si>
+  <si>
+    <t>D.Na7</t>
+  </si>
+  <si>
+    <t>Dicentral6</t>
+  </si>
+  <si>
+    <t>Dicentral7</t>
+  </si>
+  <si>
+    <t>VN6</t>
+  </si>
+  <si>
+    <t>VN7</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
+    <t>TestExportA001</t>
+  </si>
+  <si>
+    <t>TestExportA002</t>
+  </si>
+  <si>
+    <t>TestExportA003</t>
+  </si>
+  <si>
+    <t>TestExportA004</t>
+  </si>
+  <si>
+    <t>TestExportA005</t>
+  </si>
+  <si>
+    <t>TestExportA006</t>
+  </si>
+  <si>
+    <t>TestExportA007</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Export021</t>
+  </si>
+  <si>
+    <t>Export022</t>
+  </si>
+  <si>
+    <t>Export023</t>
+  </si>
+  <si>
+    <t>Export024</t>
+  </si>
+  <si>
+    <t>Export025</t>
+  </si>
+  <si>
+    <t>Export026</t>
+  </si>
+  <si>
+    <t>Export027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,23 +601,22 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -617,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -628,38 +668,38 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1">
-        <v>90505050505</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -670,37 +710,37 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="1">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1">
-        <v>90505050506</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -711,37 +751,37 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="1">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1">
-        <v>90505050507</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -752,37 +792,37 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1">
-        <v>90505050508</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
+      <c r="K5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -793,50 +833,116 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1">
-        <v>36</v>
-      </c>
-      <c r="L6" s="1">
-        <v>90505050509</v>
-      </c>
-      <c r="N6" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="N7" t="s">
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="N8" t="s">
-        <v>51</v>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -82,25 +82,25 @@
     <t>Enable</t>
   </si>
   <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>0935555555</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>0935555555</t>
-  </si>
-  <si>
-    <t>NewTest0005</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>sTest0005</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NewTest0006</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>sTest0006</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -494,9 +494,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,16 +505,16 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="25.28515625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>27</v>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>

--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>

--- a/UCProject/src/data/ExportExcel.xlsx
+++ b/UCProject/src/data/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>
